--- a/7月制作内容/系统文档/【蔡文吉】完整策划案.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】完整策划案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>一、游戏类型</t>
   </si>
@@ -22,40 +22,181 @@
     <t>模拟养成类的游戏</t>
   </si>
   <si>
-    <t>二、游戏风格</t>
-  </si>
-  <si>
-    <t>古风写实偏扁平的人物美术风格</t>
-  </si>
-  <si>
-    <t>四、游戏题材</t>
+    <t>二、游戏题材</t>
   </si>
   <si>
     <t>宅斗题材，讲述古代侯门内院，世家斗争的故事</t>
   </si>
   <si>
-    <t>三、用户定位</t>
-  </si>
-  <si>
-    <t>偏女性向，喜欢看剧情，喜欢宅斗文，或者模拟养成类游戏的玩家</t>
-  </si>
-  <si>
-    <t>五、游戏背景</t>
+    <t>三、游戏背景</t>
   </si>
   <si>
     <t>以唐朝为主要故事背景，不具体限制在特定的某个时间段，史实结合架空内容</t>
   </si>
   <si>
+    <t>四、美术风格</t>
+  </si>
+  <si>
+    <t>人物：古风写实偏扁平的人物美术风格</t>
+  </si>
+  <si>
+    <t>界面：简洁、扁平、清爽</t>
+  </si>
+  <si>
+    <t>五、用户定位</t>
+  </si>
+  <si>
+    <t>偏女性向，喜欢看剧情，喜欢宅斗文，或者喜欢模拟养成类游戏的玩家</t>
+  </si>
+  <si>
     <t>六、成长体验</t>
   </si>
   <si>
-    <t>玩家扮演的是江南，米商的一个庶女，因为身份低微，在家中饱受欺凌，通过培养身边知交好友，斗败家中的恶奴，以及仗势欺人的二娘，同父异母的姐妹等人，最终嫁入侯府，周旋于侯门世家间的争斗</t>
+    <t>玩家扮演出生于江南，米商的一个庶女，因为身份低微，在家中饱受欺凌，通过培养身边知交好友，斗败家中的恶奴以及尖酸刻薄的二娘，同父异母的绿茶婊姐妹等人，最终嫁入侯府，周旋于侯门世家间的争斗。</t>
   </si>
   <si>
     <t>七、游戏体验</t>
   </si>
   <si>
-    <t>八、系统体验</t>
+    <t>游戏内容以宅斗和养成的体验为主，随着剧情推进玩家的身份会逐渐改变，大体在游戏中分为3个阶段：</t>
+  </si>
+  <si>
+    <t>庶女：</t>
+  </si>
+  <si>
+    <t>剧情以本家为核心，主要体现玩家初期从身份低微饱受压迫，逐渐到站稳脚跟在家中立足的过程。</t>
+  </si>
+  <si>
+    <t>主要场景集中在本家的宅院里，NPC对话会有从鄙视欺压到谄媚的一个过程。</t>
+  </si>
+  <si>
+    <t>此阶段的系统主要内容为基础的资源【征收】，【知交】交互，【卡牌】培养，以及【主线关卡】【知交支线】剧情为主。</t>
+  </si>
+  <si>
+    <t>出嫁：</t>
+  </si>
+  <si>
+    <t>剧情以婆家为核心，主要体现玩家出嫁后，婆家内部争斗夺权为主。</t>
+  </si>
+  <si>
+    <t>主要场景转移到婆家及长安城，在主场景上会有府宅和长安城的切换功能，剧情及功能还是以婆家为主。</t>
+  </si>
+  <si>
+    <t>此阶段系统扩展到【寻访】，【书院】，【牢房】，【定时副本】，加入pvp【衙门】，玩家互动【宴会】、【联盟】的系统（该处系统命名都是原芝麻官系统，新系统内容和名称待定）</t>
+  </si>
+  <si>
+    <t>掌权：</t>
+  </si>
+  <si>
+    <t>剧情以侯门之间的世家争斗为核心，主要体现玩家掌权后，与其他势力争权夺势的过程。</t>
+  </si>
+  <si>
+    <t>主要场景功能点转到长安城，剧情以侯门世家之间的争斗为主。</t>
+  </si>
+  <si>
+    <t>此阶段功能以玩家互动为主，围绕资源争夺，实力比拼，收集比拼的内容为主。系统包装结合宅斗题材设定（该阶段内容未定）</t>
+  </si>
+  <si>
+    <t>宅斗体验：</t>
+  </si>
+  <si>
+    <t>剧情是宅斗体现的主体。</t>
+  </si>
+  <si>
+    <t>游戏中会通过NPC对白，人物表情态度的差异，体现玩家身份变化，和角色性格。</t>
+  </si>
+  <si>
+    <t>游戏系统功能，会根据玩家不同阶段的身份，在表现上有所变化，例如：</t>
+  </si>
+  <si>
+    <t>1.征收系统，玩家前期要在本家，点移动中的npc进行征收，到了中期，玩家只需要在书房或正堂与一个npc对话逐个征收，后期通过NPC直接可以一键征收。</t>
+  </si>
+  <si>
+    <t>2.玩家升级体验，每次升级玩家的房间背景和服饰都会有所变化，增加一些家具或者服装装饰等。</t>
+  </si>
+  <si>
+    <t>3.特定时期的身份转变会通过剧情，分镜等形式去烘托，一些功能入口也会因为身份改变而改变位置，如一开始庶女在宅院的边角破房，到住进东厢房，中期场景转到长安城的侯府等表现。</t>
+  </si>
+  <si>
+    <t>养成体验：</t>
+  </si>
+  <si>
+    <t>玩家身份养成：</t>
+  </si>
+  <si>
+    <t>前期通过剧情获得经验，提升玩家身份，后期通过功能和活动获得经验，玩家身份提升会推动剧情进展。</t>
+  </si>
+  <si>
+    <t>知交养成：</t>
+  </si>
+  <si>
+    <t>玩家通过主线任务，赠送礼物，支线任务等方式，获得知交好感，推动玩家与知交间的情感关系，因而产生一系列卡牌。</t>
+  </si>
+  <si>
+    <t>卡牌养成：</t>
+  </si>
+  <si>
+    <t>玩家通过游戏内的系统获得属性或资质道具，通过道具直接提升卡牌属性，卡牌将在战斗中帮助玩家战斗或完成剧情任务。</t>
+  </si>
+  <si>
+    <t>交互体验：</t>
+  </si>
+  <si>
+    <t>pvp：</t>
+  </si>
+  <si>
+    <t>玩家与玩家之间，直接比拼养成结果，对玩家养成结果的释放和展现。</t>
+  </si>
+  <si>
+    <t>排行榜：</t>
+  </si>
+  <si>
+    <t>设立时效性的榜单，为玩家设立中期目标，通过榜单排名竞争产生玩家互动。（排行榜将贯穿整个游戏过程）</t>
+  </si>
+  <si>
+    <t>商盟：</t>
+  </si>
+  <si>
+    <t>建立玩家联盟，共同建设发展，增强玩家间互动。</t>
+  </si>
+  <si>
+    <t>协作系统：</t>
+  </si>
+  <si>
+    <t>3-5个玩家协作才能完成的玩法系统。</t>
+  </si>
+  <si>
+    <t>战斗体验：</t>
+  </si>
+  <si>
+    <t>（待定）</t>
+  </si>
+  <si>
+    <t>八、系统体验（随项目持续更新）</t>
+  </si>
+  <si>
+    <t>主界面&amp;主场景：主界面为核心功能入口，主场景根据游戏剧情推动，分成3个阶段。</t>
+  </si>
+  <si>
+    <t>主界面：</t>
+  </si>
+  <si>
+    <t>知交系统：</t>
+  </si>
+  <si>
+    <t>玩家在游戏内通过主线剧情会结识到知交好友，通过剧情或赠送礼物给知交可提升好感度，当好感度达到一定程度后，会改变彼此的关系，并开启知交的支线剧情，完成支线剧情会获得一张卡牌。</t>
+  </si>
+  <si>
+    <t>系统功能：</t>
+  </si>
+  <si>
+    <t>赠礼：增加知交好感度</t>
+  </si>
+  <si>
+    <t>支线：知交相关的支线列表，可回顾已完成的支线，或者进入开启中的支线，同时能查看到开启后续支线的条件</t>
+  </si>
+  <si>
+    <t>封面：</t>
   </si>
 </sst>
 </file>
@@ -63,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -85,7 +226,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,23 +309,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,38 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -176,15 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +361,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,49 +371,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,133 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +565,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,15 +594,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -474,11 +602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +620,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,138 +682,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,6 +878,243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566420</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="6IJCW%OCFZR(`5U1AZ`G8LE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="26250900"/>
+          <a:ext cx="1909445" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="~G}C[KW}Q0637VHHFSZNUOQ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="30032325"/>
+          <a:ext cx="2005965" cy="3550285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="FN[WV%0O09[SICYDIG8`)PT"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="30032325"/>
+          <a:ext cx="2005965" cy="3554095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678815</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="JQV%E9U6`Z64~(WRG6FB[7X"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="30022800"/>
+          <a:ext cx="2002790" cy="3554730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="~Y72RK$Y35NR[A3XQU3LON4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="33804225"/>
+          <a:ext cx="2092325" cy="3735070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="14077950"/>
+          <a:ext cx="2395220" cy="4248785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -994,13 +1375,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A4:B34"/>
+  <dimension ref="A4:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
@@ -1042,38 +1423,277 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>